--- a/ResultatsBancTest/BExtension.xlsx
+++ b/ResultatsBancTest/BExtension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AD87BD-D8C9-6841-8002-A8DD2E7AF7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1755E3E-E366-CC48-A9B4-EE9AE5B8602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{10517792-B702-44BF-B28A-DE96233BF080}"/>
   </bookViews>
@@ -469,37 +469,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5642458100558549E-2</c:v>
+                  <c:v>1.5642458100558552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0022246941045624E-2</c:v>
+                  <c:v>2.0022246941045623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8665931642778416E-2</c:v>
+                  <c:v>2.8665931642778415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0827436037016739E-2</c:v>
+                  <c:v>4.0827436037016733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7567567567567609E-2</c:v>
+                  <c:v>4.7567567567567606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8257616247995719E-2</c:v>
+                  <c:v>5.825761624799572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8760683760683698E-2</c:v>
+                  <c:v>5.8760683760683694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0266666666666663E-2</c:v>
+                  <c:v>6.0266666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.376195536663129E-2</c:v>
+                  <c:v>6.37619553666313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6242713301536721E-2</c:v>
+                  <c:v>6.6242713301536726</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.067510548523212E-2</c:v>
+                  <c:v>7.067510548523213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,12 +685,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Résistance</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> relative (R-R0)/R0</a:t>
+                  <a:t>(R-R0)/R0 en %</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -1714,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495DE8B1-2E2C-4CE8-ACF2-188DB17343B3}">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1806,7 +1802,7 @@
         <v>3.524</v>
       </c>
       <c r="N2">
-        <f>(M2-3.524)/M2</f>
+        <f>100*(M2-3.524)/M2</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -1859,8 +1855,8 @@
         <v>3.5799999999999996</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N13" si="1">(M3-3.524)/M3</f>
-        <v>1.5642458100558549E-2</v>
+        <f t="shared" ref="N3:N13" si="1">100*(M3-3.524)/M3</f>
+        <v>1.5642458100558552</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O13" si="2">P3*10</f>
@@ -1913,7 +1909,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>2.0022246941045624E-2</v>
+        <v>2.0022246941045623</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
@@ -1966,7 +1962,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>2.8665931642778416E-2</v>
+        <v>2.8665931642778415</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -2019,7 +2015,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>4.0827436037016739E-2</v>
+        <v>4.0827436037016733</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -2072,7 +2068,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>4.7567567567567609E-2</v>
+        <v>4.7567567567567606</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -2125,7 +2121,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>5.8257616247995719E-2</v>
+        <v>5.825761624799572</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -2178,7 +2174,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>5.8760683760683698E-2</v>
+        <v>5.8760683760683694</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -2231,7 +2227,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>6.0266666666666663E-2</v>
+        <v>6.0266666666666664</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
@@ -2284,7 +2280,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>6.376195536663129E-2</v>
+        <v>6.37619553666313</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
@@ -2337,7 +2333,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>6.6242713301536721E-2</v>
+        <v>6.6242713301536726</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
@@ -2390,7 +2386,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>7.067510548523212E-2</v>
+        <v>7.067510548523213</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
